--- a/biology/Médecine/Cancers_dus_aux_goudrons_de_houille/Cancers_dus_aux_goudrons_de_houille.xlsx
+++ b/biology/Médecine/Cancers_dus_aux_goudrons_de_houille/Cancers_dus_aux_goudrons_de_houille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cancer provoqué par les goudrons de houille est reconnu comme maladie professionnelle en France sous certaines conditions.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical.
-Les goudrons de houille ont été les premières substances chimiques dont le caractère cancérogène a été observé, dès 1775 par Percivall Pott, auteur d'une étude clinique sur le cancer du scrotum des petits ramoneurs de Londres[1].  
+Les goudrons de houille ont été les premières substances chimiques dont le caractère cancérogène a été observé, dès 1775 par Percivall Pott, auteur d'une étude clinique sur le cancer du scrotum des petits ramoneurs de Londres.  
 </t>
         </is>
       </c>
@@ -515,14 +527,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
-Données professionnelles
-Percivall Pott s'est illustré par une étude clinique datant de 1775 sur le cancer du scrotum des petits ramoneurs de Londres[1].
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cancers_dus_aux_goudrons_de_houille</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cancers_dus_aux_goudrons_de_houille</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cancers_dus_aux_goudrons_de_houille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cancers_dus_aux_goudrons_de_houille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Percivall Pott s'est illustré par une étude clinique datant de 1775 sur le cancer du scrotum des petits ramoneurs de Londres.
 Ce travail, très novateur pour l’époque, a prouvé pour la première fois qu’une substance chimique (en l’occurrence des résidus de houille imbrûlée contenus dans les suies) pouvait provoquer un cancer par contact cutané prolongé. Il est ainsi considéré comme un précurseur de l’épidémiologie des cancers et il a ouvert la voie aux recherches  dans le domaine de la  cancérogénèse expérimentale. 
 Malgré les conséquences sanitaires épouvantables de ces conditions de travail insalubres, il a fallu attendre 1840 pour que le travail de ramoneur soit interdit aux enfants de moins de 10 ans.
-Données médicales
-Pour les tumeurs cutanées, il peut s'agir d'épithéliomas basocellulaires ou d'épithéliomas spinocellulaires comme les cas observés par Percivall Pott.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cancers_dus_aux_goudrons_de_houille</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cancers_dus_aux_goudrons_de_houille</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les tumeurs cutanées, il peut s'agir d'épithéliomas basocellulaires ou d'épithéliomas spinocellulaires comme les cas observés par Percivall Pott.
 Le rôle des goudrons dans l'apparition des cancers bronchiques et des cancers de la vessie a été largement prouvé, en dehors des risques professionnels puisque ces substances sont les principaux cancérogènes contenus dans la fumée de tabac.
 </t>
         </is>
